--- a/data/trans_bre/P1803_2016_2023-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1803_2016_2023-Clase-trans_bre.xlsx
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.855418959133502</v>
+        <v>-3.692963784063848</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.1723251912674793</v>
+        <v>-0.5274930081521374</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.4254699693415915</v>
+        <v>-0.4199638000948078</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.02123324588711912</v>
+        <v>-0.03026116535449217</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.43103581030723</v>
+        <v>4.084371666283484</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.186294130364939</v>
+        <v>7.92289406559276</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.8590873858765048</v>
+        <v>0.7344995635166993</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.8319972708500175</v>
+        <v>0.797925832412565</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>4.972433280230627</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>7.319281406958473</v>
+        <v>7.319281406958475</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>1.335455771617775</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.9413213868348895</v>
+        <v>0.9413213868348899</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.507907549878372</v>
+        <v>1.244587674365288</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.453189937057595</v>
+        <v>3.535401762426518</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.2263176007188601</v>
+        <v>0.1067438773796252</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.3150267620994225</v>
+        <v>0.346877210550246</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.708320860788287</v>
+        <v>8.796360913090243</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>11.38100972789328</v>
+        <v>11.25052973892695</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>3.668089571865347</v>
+        <v>3.658732620452203</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.930372182005257</v>
+        <v>1.786969593727799</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>2.219248385734689</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-1.11173314580014</v>
+        <v>-1.111733145800138</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0.4783969736615971</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>-0.1092541887141201</v>
+        <v>-0.10925418871412</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.914813518890695</v>
+        <v>-2.060885164507758</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.239738307943623</v>
+        <v>-5.187080635850795</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.3720642371986544</v>
+        <v>-0.3833439405846472</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.4458154492604911</v>
+        <v>-0.4451770420015133</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.452388846079986</v>
+        <v>6.782428997781606</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.417489854882362</v>
+        <v>3.551552312885064</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>2.242197952009089</v>
+        <v>1.843888000171201</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.4535127604868358</v>
+        <v>0.4083663132038024</v>
       </c>
     </row>
     <row r="13">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.3267449794070652</v>
+        <v>-0.5250807373232974</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9962654524179264</v>
+        <v>0.9347651282696505</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.06342626993448093</v>
+        <v>-0.1037605844020404</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1232557831283687</v>
+        <v>0.1109654916999512</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.811836666991251</v>
+        <v>3.840493751634071</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.582234643492431</v>
+        <v>5.869072035479236</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.075741878227131</v>
+        <v>1.084201332414327</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.9810756225609101</v>
+        <v>1.050788719563391</v>
       </c>
     </row>
     <row r="16">
@@ -848,13 +848,13 @@
         <v>0.8316681145573191</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>2.540322036613268</v>
+        <v>2.540322036613269</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>0.2393377466407193</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>0.4343255081078584</v>
+        <v>0.4343255081078587</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.214336938165767</v>
+        <v>-1.099908873289581</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.2855543628307191</v>
+        <v>-0.3043033100551392</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.2893637018837126</v>
+        <v>-0.2545708062393289</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.04102492321177201</v>
+        <v>-0.05245482844691281</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.986868462023494</v>
+        <v>3.097743259604994</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.892582154454564</v>
+        <v>5.147723492514914</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1.209832246008351</v>
+        <v>1.244365770703743</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1.132704222142913</v>
+        <v>1.183182980090209</v>
       </c>
     </row>
     <row r="19">
@@ -912,13 +912,13 @@
         <v>0.3470484622935609</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.3787384465613067</v>
+        <v>0.3787384465613074</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>0.09597120709538638</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.07235823566231685</v>
+        <v>0.07235823566231699</v>
       </c>
     </row>
     <row r="20">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-2.811738470945015</v>
+        <v>-2.909373566246999</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-6.923648143624934</v>
+        <v>-6.612047425412396</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4752456540451526</v>
+        <v>-0.4864795824340841</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5978420668789149</v>
+        <v>-0.5888661957091476</v>
       </c>
     </row>
     <row r="21">
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2.674503942356048</v>
+        <v>2.77808629304235</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>4.270614772062657</v>
+        <v>4.334359998829021</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.465510496443563</v>
+        <v>1.512265721072235</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.42725372407248</v>
+        <v>2.631826835148255</v>
       </c>
     </row>
     <row r="22">
@@ -976,13 +976,13 @@
         <v>0.9920912089991178</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>2.002158301562601</v>
+        <v>2.002158301562599</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0.218066140708836</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>0.248821062597543</v>
+        <v>0.2488210625975429</v>
       </c>
     </row>
     <row r="23">
@@ -993,16 +993,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.1105727053846304</v>
+        <v>-0.08991235465660365</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6230692371212209</v>
+        <v>0.498554441326472</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>-0.02123891672654551</v>
+        <v>-0.01968663760916127</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.06830534055929413</v>
+        <v>0.04928462121294779</v>
       </c>
     </row>
     <row r="24">
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.109483497671552</v>
+        <v>2.088824472934513</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.358455118555835</v>
+        <v>3.250513284568875</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>0.5470337854745021</v>
+        <v>0.5210071211754167</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.4588764947117975</v>
+        <v>0.4421003801087057</v>
       </c>
     </row>
     <row r="25">
